--- a/homework3/ПРИСТАВКИ.xlsx
+++ b/homework3/ПРИСТАВКИ.xlsx
@@ -5,32 +5,34 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melnikovaarina/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melnikovaarina/Desktop/kili/homework3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="460" windowWidth="22920" windowHeight="12800" tabRatio="500" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="5880" yWindow="460" windowWidth="22920" windowHeight="12800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ОБЩАЯ ТАБЛИЦА" sheetId="1" r:id="rId1"/>
-    <sheet name="PREFIX+TENSE" sheetId="3" r:id="rId2"/>
-    <sheet name="PREFIX+PERSONNUMBER" sheetId="5" r:id="rId3"/>
-    <sheet name="PREFIX+TENSE+PERSONNUMBER" sheetId="18" r:id="rId4"/>
-    <sheet name="PREFIX+PARTICIPANT1" sheetId="9" r:id="rId5"/>
-    <sheet name="PREFIX+PARTICIPANT2" sheetId="11" r:id="rId6"/>
-    <sheet name="PREFIX+PARTICIPANT3" sheetId="15" r:id="rId7"/>
-    <sheet name="PREFIX CREATED" sheetId="16" r:id="rId8"/>
+    <sheet name="СВОДНАЯ ТАБЛИЦА ПО АВТОРАМ" sheetId="19" r:id="rId2"/>
+    <sheet name="PREFIX+TENSE" sheetId="3" r:id="rId3"/>
+    <sheet name="PREFIX+PERSONNUMBER" sheetId="5" r:id="rId4"/>
+    <sheet name="PREFIX+TENSE+PERSONNUMBER" sheetId="18" r:id="rId5"/>
+    <sheet name="PREFIX+PARTICIPANT1" sheetId="9" r:id="rId6"/>
+    <sheet name="PREFIX+PARTICIPANT2" sheetId="11" r:id="rId7"/>
+    <sheet name="PREFIX+PARTICIPANT3" sheetId="15" r:id="rId8"/>
+    <sheet name="PREFIX CREATED" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'PREFIX CREATED'!$J$1:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'PREFIX CREATED'!$J$1:$J$37</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId9"/>
-    <pivotCache cacheId="64" r:id="rId10"/>
-    <pivotCache cacheId="43" r:id="rId11"/>
-    <pivotCache cacheId="54" r:id="rId12"/>
-    <pivotCache cacheId="58" r:id="rId13"/>
+    <pivotCache cacheId="6" r:id="rId10"/>
+    <pivotCache cacheId="7" r:id="rId11"/>
+    <pivotCache cacheId="8" r:id="rId12"/>
+    <pivotCache cacheId="9" r:id="rId13"/>
+    <pivotCache cacheId="10" r:id="rId14"/>
+    <pivotCache cacheId="11" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="636">
   <si>
     <t>Reversed left context</t>
   </si>
@@ -3227,12 +3229,152 @@
   <si>
     <t>КОЛИЧЕСТВО ЗНАЧЕНИЙ ПРИСТАВКИ С-</t>
   </si>
+  <si>
+    <t>Давид Самойлов </t>
+  </si>
+  <si>
+    <t>Дмитрий Емец </t>
+  </si>
+  <si>
+    <t>Евгений Артемов </t>
+  </si>
+  <si>
+    <t>Еремей Парнов </t>
+  </si>
+  <si>
+    <t>И. Г. Эренбург </t>
+  </si>
+  <si>
+    <t>К. С. Бадигин </t>
+  </si>
+  <si>
+    <t>Лев Дворецкий </t>
+  </si>
+  <si>
+    <t>Лев Исаков </t>
+  </si>
+  <si>
+    <t>М. Леско </t>
+  </si>
+  <si>
+    <t>Михаил Беляев </t>
+  </si>
+  <si>
+    <t>Н. А. Оцуп </t>
+  </si>
+  <si>
+    <t>Н. Садур </t>
+  </si>
+  <si>
+    <t>Наталья Литвинова </t>
+  </si>
+  <si>
+    <t>Новелла Иванова </t>
+  </si>
+  <si>
+    <t>Петр Акимов </t>
+  </si>
+  <si>
+    <t>Слава Сэ </t>
+  </si>
+  <si>
+    <t>Фазиль Искандер </t>
+  </si>
+  <si>
+    <t>Эльдар Рязанов </t>
+  </si>
+  <si>
+    <t>Ю. И. Визбор </t>
+  </si>
+  <si>
+    <t>Юрий Давыдов </t>
+  </si>
+  <si>
+    <t>O. М. Куваев </t>
+  </si>
+  <si>
+    <t>(пусто)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri (Основной текст)"/>
+      </rPr>
+      <t>СПУТАТЬ</t>
+    </r>
+  </si>
+  <si>
+    <t>Александр Зиновьев </t>
+  </si>
+  <si>
+    <t>Алексей Иванов </t>
+  </si>
+  <si>
+    <t>Алексей Макушинский </t>
+  </si>
+  <si>
+    <t>Аркадий Вайнер, Георгий Вайнер </t>
+  </si>
+  <si>
+    <t>Аркадий Стругацкий, Борис Стругацкий </t>
+  </si>
+  <si>
+    <t>Борис Грищенко </t>
+  </si>
+  <si>
+    <t>Борис Можаев </t>
+  </si>
+  <si>
+    <t>В. Лихоносов </t>
+  </si>
+  <si>
+    <t>Галина Щербакова </t>
+  </si>
+  <si>
+    <t>Давид Карапетян </t>
+  </si>
+  <si>
+    <t>Дарья Донцова </t>
+  </si>
+  <si>
+    <t>Кир Булычев </t>
+  </si>
+  <si>
+    <t>Маша Трауб </t>
+  </si>
+  <si>
+    <t>Николай Кашаев, Владимир Елин </t>
+  </si>
+  <si>
+    <t>Николай Климонтович </t>
+  </si>
+  <si>
+    <t>Р. А. Белецкий </t>
+  </si>
+  <si>
+    <t>Сергей Довлатов </t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>ПЕРЕПУТАТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет автора </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3327,6 +3469,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Основной текст)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Основной текст)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3377,7 +3539,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3424,6 +3586,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
@@ -3562,11 +3732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1840831632"/>
-        <c:axId val="1840964864"/>
+        <c:axId val="273166272"/>
+        <c:axId val="373582992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1840831632"/>
+        <c:axId val="273166272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3609,7 +3779,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1840964864"/>
+        <c:crossAx val="373582992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3617,7 +3787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1840964864"/>
+        <c:axId val="373582992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3667,7 +3837,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1840831632"/>
+        <c:crossAx val="273166272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3812,7 +3982,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3948,7 +4117,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4084,7 +4252,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4220,7 +4387,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4285,11 +4451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2013876800"/>
-        <c:axId val="-2013782528"/>
+        <c:axId val="373649680"/>
+        <c:axId val="373557088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2013876800"/>
+        <c:axId val="373649680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4332,7 +4498,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013782528"/>
+        <c:crossAx val="373557088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4340,7 +4506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2013782528"/>
+        <c:axId val="373557088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4404,7 +4570,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013876800"/>
+        <c:crossAx val="373649680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4418,7 +4584,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4994,11 +5159,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2023413328"/>
-        <c:axId val="1876045808"/>
+        <c:axId val="371368592"/>
+        <c:axId val="371370368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2023413328"/>
+        <c:axId val="371368592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5041,7 +5206,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876045808"/>
+        <c:crossAx val="371370368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5049,7 +5214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1876045808"/>
+        <c:axId val="371370368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5100,7 +5265,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2023413328"/>
+        <c:crossAx val="371368592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5114,7 +5279,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5267,7 +5431,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5386,7 +5549,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5508,7 +5670,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5574,11 +5735,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1843902640"/>
-        <c:axId val="1842235904"/>
+        <c:axId val="371402448"/>
+        <c:axId val="371405280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1843902640"/>
+        <c:axId val="371402448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5621,7 +5782,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1842235904"/>
+        <c:crossAx val="371405280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5629,7 +5790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1842235904"/>
+        <c:axId val="371405280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5679,7 +5840,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1843902640"/>
+        <c:crossAx val="371402448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5693,7 +5854,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5856,7 +6016,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5995,7 +6154,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6131,7 +6289,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6267,7 +6424,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6347,11 +6503,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1871887856"/>
-        <c:axId val="1844621408"/>
+        <c:axId val="376491296"/>
+        <c:axId val="376474720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1871887856"/>
+        <c:axId val="376491296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6394,7 +6550,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844621408"/>
+        <c:crossAx val="376474720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6402,7 +6558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1844621408"/>
+        <c:axId val="376474720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6438,7 +6594,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1871887856"/>
+        <c:crossAx val="376491296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6464,7 +6620,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6627,7 +6782,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6773,7 +6927,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6922,7 +7075,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7133,11 +7285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1834266512"/>
-        <c:axId val="-2078785488"/>
+        <c:axId val="371732432"/>
+        <c:axId val="377075200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1834266512"/>
+        <c:axId val="371732432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7180,7 +7332,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078785488"/>
+        <c:crossAx val="377075200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7188,7 +7340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078785488"/>
+        <c:axId val="377075200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7197,7 +7349,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1834266512"/>
+        <c:crossAx val="371732432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7211,7 +7363,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7511,11 +7662,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2023776224"/>
-        <c:axId val="1895012352"/>
+        <c:axId val="377100064"/>
+        <c:axId val="377102384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2023776224"/>
+        <c:axId val="377100064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7557,7 +7708,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1895012352"/>
+        <c:crossAx val="377102384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7565,7 +7716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1895012352"/>
+        <c:axId val="377102384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7615,7 +7766,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2023776224"/>
+        <c:crossAx val="377100064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7891,11 +8042,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1833934336"/>
-        <c:axId val="-2114348048"/>
+        <c:axId val="390164256"/>
+        <c:axId val="390166576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1833934336"/>
+        <c:axId val="390164256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7938,7 +8089,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114348048"/>
+        <c:crossAx val="390166576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7946,7 +8097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114348048"/>
+        <c:axId val="390166576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7996,7 +8147,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833934336"/>
+        <c:crossAx val="390164256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12950,6 +13101,70 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" invalid="1" refreshedBy="пользователь Microsoft Office" refreshedDate="43026.452719907407" createdVersion="1" refreshedVersion="4" recordCount="0">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="I1:J1048576" sheet="Результаты поиска" r:id="rId1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Количество" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1"/>
+    </cacheField>
+    <cacheField name="Author" numFmtId="0">
+      <sharedItems containsBlank="1" count="42">
+        <s v=" "/>
+        <s v="Александр Владимиров "/>
+        <s v="Александр Зиновьев "/>
+        <s v="Александра Маринина "/>
+        <s v="Алексей Иванов "/>
+        <s v="Алексей Макушинский "/>
+        <s v="Алексей Щеглов "/>
+        <s v="Андрей Белозеров "/>
+        <s v="Андрей Битов "/>
+        <s v="Андрей Тарасов "/>
+        <s v="Аркадий Вайнер, Георгий Вайнер "/>
+        <s v="Аркадий Стругацкий, Борис Стругацкий "/>
+        <s v="Борис Грищенко "/>
+        <s v="Борис Можаев "/>
+        <s v="В. Лихоносов "/>
+        <s v="Валентин Распутин "/>
+        <s v="Василий Аксенов "/>
+        <s v="Василий Песков "/>
+        <s v="Вера Белоусова "/>
+        <s v="Галина Щербакова "/>
+        <s v="Давид Карапетян "/>
+        <s v="Дарья Донцова "/>
+        <s v="Дина Сабитова "/>
+        <s v="Кир Булычев "/>
+        <s v="коллективный "/>
+        <s v="Маша Трауб "/>
+        <s v="Михаил Гиголашвили "/>
+        <s v="Николай Кашаев, Владимир Елин "/>
+        <s v="Николай Климонтович "/>
+        <s v="Николай Комолов "/>
+        <s v="Нина Катерли "/>
+        <s v="Нина Садур "/>
+        <s v="О. В. Колпакова "/>
+        <s v="обобщенный "/>
+        <s v="Р. А. Белецкий "/>
+        <s v="Сергей Довлатов "/>
+        <s v="Сергей Таранов "/>
+        <s v="Сергей Юрский "/>
+        <s v="Эдвард Радзинский "/>
+        <s v="Ю. М. Нагибин "/>
+        <s v="Юрий Дружков (Постников) "/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="64">
   <r>
@@ -14896,7 +15111,209 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица5" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" outlineData="1" gridDropZones="1" rowHeaderCaption="нет автора ">
+  <location ref="E3:F46" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="43">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="43">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Автор" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -14958,8 +15375,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица6" cacheId="64" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица6" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" dataField="1" showAll="0">
@@ -15032,8 +15449,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица17" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица17" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -15126,8 +15543,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица10" cacheId="43" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица10" cacheId="8" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -15189,8 +15606,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица12" cacheId="54" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица12" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -15265,8 +15682,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица15" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица15" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" dataField="1" showAll="0">
@@ -15641,8 +16058,8 @@
   <sheetData>
     <row r="1" spans="1:27" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="16">
-        <f ca="1">RAND()*100</f>
-        <v>9.6745280129463715</v>
+        <f t="shared" ref="A1:A32" ca="1" si="0">RAND()*100</f>
+        <v>56.796416601841003</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -15725,8 +16142,8 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f ca="1">RAND()*100</f>
-        <v>41.590405249294648</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>80.366965053444702</v>
       </c>
       <c r="B2" t="s">
         <v>429</v>
@@ -15750,7 +16167,7 @@
         <v>435</v>
       </c>
       <c r="I2" s="4">
-        <f>IF(J3=J2,"",1)</f>
+        <f t="shared" ref="I2:I33" si="1">IF(J3=J2,"",1)</f>
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -15810,8 +16227,8 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f ca="1">RAND()*100</f>
-        <v>30.759007635230752</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68.414137009823108</v>
       </c>
       <c r="B3" t="s">
         <v>318</v>
@@ -15835,7 +16252,7 @@
         <v>323</v>
       </c>
       <c r="I3" s="4">
-        <f>IF(J4=J3,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -15895,8 +16312,8 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f ca="1">RAND()*100</f>
-        <v>23.889137733441203</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>95.212452221945924</v>
       </c>
       <c r="B4" t="s">
         <v>330</v>
@@ -15920,7 +16337,7 @@
         <v>334</v>
       </c>
       <c r="I4" s="4">
-        <f>IF(J5=J4,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -15980,8 +16397,8 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f ca="1">RAND()*100</f>
-        <v>92.213132159445337</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46.116004026105351</v>
       </c>
       <c r="B5" t="s">
         <v>348</v>
@@ -16005,7 +16422,7 @@
         <v>351</v>
       </c>
       <c r="I5" s="4">
-        <f>IF(J6=J5,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -16065,8 +16482,8 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f ca="1">RAND()*100</f>
-        <v>88.848757866613482</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7534111974910429</v>
       </c>
       <c r="B6" t="s">
         <v>364</v>
@@ -16090,7 +16507,7 @@
         <v>367</v>
       </c>
       <c r="I6" s="4">
-        <f>IF(J7=J6,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -16150,8 +16567,8 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f ca="1">RAND()*100</f>
-        <v>50.539223714778892</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38.424171430676793</v>
       </c>
       <c r="B7" t="s">
         <v>373</v>
@@ -16175,7 +16592,7 @@
         <v>376</v>
       </c>
       <c r="I7" s="4">
-        <f>IF(J8=J7,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -16235,8 +16652,8 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f ca="1">RAND()*100</f>
-        <v>76.654722203398634</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>73.634426006990523</v>
       </c>
       <c r="B8" t="s">
         <v>393</v>
@@ -16260,7 +16677,7 @@
         <v>396</v>
       </c>
       <c r="I8" s="4">
-        <f>IF(J9=J8,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -16320,8 +16737,8 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f ca="1">RAND()*100</f>
-        <v>50.250127177883222</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>76.254312284171846</v>
       </c>
       <c r="B9" t="s">
         <v>420</v>
@@ -16345,7 +16762,7 @@
         <v>423</v>
       </c>
       <c r="I9" s="4">
-        <f>IF(J10=J9,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -16405,8 +16822,8 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f ca="1">RAND()*100</f>
-        <v>27.030282437212392</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38.829829266291071</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -16430,7 +16847,7 @@
         <v>445</v>
       </c>
       <c r="I10" s="4">
-        <f>IF(J11=J10,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -16490,8 +16907,8 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f ca="1">RAND()*100</f>
-        <v>2.2533864895169842</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46.15976555740621</v>
       </c>
       <c r="B11" t="s">
         <v>521</v>
@@ -16515,7 +16932,7 @@
         <v>524</v>
       </c>
       <c r="I11" s="4">
-        <f>IF(J12=J11,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -16575,8 +16992,8 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f ca="1">RAND()*100</f>
-        <v>63.589774021050005</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>99.896481599787819</v>
       </c>
       <c r="B12" t="s">
         <v>532</v>
@@ -16600,7 +17017,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="4">
-        <f>IF(J13=J12,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -16660,8 +17077,8 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f ca="1">RAND()*100</f>
-        <v>90.939127397301533</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>81.357996003916838</v>
       </c>
       <c r="B13" t="s">
         <v>293</v>
@@ -16685,7 +17102,7 @@
         <v>298</v>
       </c>
       <c r="I13" s="4">
-        <f>IF(J14=J13,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -16745,8 +17162,8 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f ca="1">RAND()*100</f>
-        <v>23.813236928049932</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>91.455966969891762</v>
       </c>
       <c r="B14" t="s">
         <v>356</v>
@@ -16770,7 +17187,7 @@
         <v>359</v>
       </c>
       <c r="I14" s="4">
-        <f>IF(J15=J14,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -16830,8 +17247,8 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f ca="1">RAND()*100</f>
-        <v>69.99737225429719</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35.213091338439803</v>
       </c>
       <c r="B15" t="s">
         <v>451</v>
@@ -16855,7 +17272,7 @@
         <v>454</v>
       </c>
       <c r="I15" s="4">
-        <f>IF(J16=J15,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -16915,8 +17332,8 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f ca="1">RAND()*100</f>
-        <v>81.217951158873802</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.890646504899916</v>
       </c>
       <c r="B16" t="s">
         <v>473</v>
@@ -16940,7 +17357,7 @@
         <v>476</v>
       </c>
       <c r="I16" s="4">
-        <f>IF(J17=J16,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -17000,8 +17417,8 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f ca="1">RAND()*100</f>
-        <v>69.633532131684163</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15.594347131993469</v>
       </c>
       <c r="B17" t="s">
         <v>502</v>
@@ -17025,7 +17442,7 @@
         <v>505</v>
       </c>
       <c r="I17" s="4">
-        <f>IF(J18=J17,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -17085,8 +17502,8 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f ca="1">RAND()*100</f>
-        <v>27.599808207242837</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.1497369131003996</v>
       </c>
       <c r="B18" t="s">
         <v>307</v>
@@ -17110,7 +17527,7 @@
         <v>311</v>
       </c>
       <c r="I18" s="4">
-        <f>IF(J19=J18,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -17170,8 +17587,8 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f ca="1">RAND()*100</f>
-        <v>89.976182017695805</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>57.305349525421335</v>
       </c>
       <c r="B19" t="s">
         <v>339</v>
@@ -17195,7 +17612,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="4">
-        <f>IF(J20=J19,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -17255,8 +17672,8 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f ca="1">RAND()*100</f>
-        <v>27.887442209411674</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.810796326203629</v>
       </c>
       <c r="B20" t="s">
         <v>383</v>
@@ -17280,7 +17697,7 @@
         <v>386</v>
       </c>
       <c r="I20" s="4">
-        <f>IF(J21=J20,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -17340,8 +17757,8 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f ca="1">RAND()*100</f>
-        <v>15.850796069942207</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>73.803092701878583</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -17365,7 +17782,7 @@
         <v>406</v>
       </c>
       <c r="I21" s="4">
-        <f>IF(J22=J21,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -17425,8 +17842,8 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f ca="1">RAND()*100</f>
-        <v>86.471903763048076</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60.930346725942428</v>
       </c>
       <c r="B22" t="s">
         <v>412</v>
@@ -17450,7 +17867,7 @@
         <v>415</v>
       </c>
       <c r="I22" s="4">
-        <f>IF(J23=J22,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -17510,8 +17927,8 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f ca="1">RAND()*100</f>
-        <v>0.72070431262131196</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8691857373048153</v>
       </c>
       <c r="B23" t="s">
         <v>464</v>
@@ -17535,7 +17952,7 @@
         <v>467</v>
       </c>
       <c r="I23" s="4">
-        <f>IF(J24=J23,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -17595,8 +18012,8 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f ca="1">RAND()*100</f>
-        <v>8.4054868776066822</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50.556317671417972</v>
       </c>
       <c r="B24" t="s">
         <v>483</v>
@@ -17620,7 +18037,7 @@
         <v>486</v>
       </c>
       <c r="I24" s="4">
-        <f>IF(J25=J24,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -17680,8 +18097,8 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f ca="1">RAND()*100</f>
-        <v>31.219805904719834</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.291439107698087</v>
       </c>
       <c r="B25" t="s">
         <v>511</v>
@@ -17705,7 +18122,7 @@
         <v>514</v>
       </c>
       <c r="I25" s="4">
-        <f>IF(J26=J25,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -17765,8 +18182,8 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f ca="1">RAND()*100</f>
-        <v>94.595914822220465</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50.735134546247565</v>
       </c>
       <c r="B26" t="s">
         <v>492</v>
@@ -17790,7 +18207,7 @@
         <v>497</v>
       </c>
       <c r="I26" s="4">
-        <f>IF(J27=J26,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -17850,8 +18267,8 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f ca="1">RAND()*100</f>
-        <v>61.768987646708254</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16.736335325973783</v>
       </c>
       <c r="B27" t="s">
         <v>114</v>
@@ -17875,7 +18292,7 @@
         <v>119</v>
       </c>
       <c r="I27" s="4">
-        <f>IF(J28=J27,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -17935,8 +18352,8 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f ca="1">RAND()*100</f>
-        <v>13.354935945581914</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>14.790808786509867</v>
       </c>
       <c r="B28" t="s">
         <v>149</v>
@@ -17960,7 +18377,7 @@
         <v>152</v>
       </c>
       <c r="I28" s="4">
-        <f>IF(J29=J28,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="4" t="s">
@@ -18020,8 +18437,8 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f ca="1">RAND()*100</f>
-        <v>71.097162744669703</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17.171700611813623</v>
       </c>
       <c r="B29" t="s">
         <v>191</v>
@@ -18045,7 +18462,7 @@
         <v>194</v>
       </c>
       <c r="I29" s="4">
-        <f>IF(J30=J29,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -18105,8 +18522,8 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f ca="1">RAND()*100</f>
-        <v>61.137263433780745</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16.495054388548347</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -18130,7 +18547,7 @@
         <v>8</v>
       </c>
       <c r="I30" s="4">
-        <f>IF(J31=J30,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -18190,8 +18607,8 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f ca="1">RAND()*100</f>
-        <v>45.393711085708588</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>49.026186511557469</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
@@ -18215,7 +18632,7 @@
         <v>54</v>
       </c>
       <c r="I31" s="4">
-        <f>IF(J32=J31,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -18275,8 +18692,8 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f ca="1">RAND()*100</f>
-        <v>84.226153476029026</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5142756625508014E-2</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -18300,7 +18717,7 @@
         <v>69</v>
       </c>
       <c r="I32" s="4">
-        <f>IF(J33=J32,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -18360,8 +18777,8 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f ca="1">RAND()*100</f>
-        <v>21.342042308489983</v>
+        <f t="shared" ref="A33:A51" ca="1" si="2">RAND()*100</f>
+        <v>10.195061388142335</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
@@ -18385,7 +18802,7 @@
         <v>82</v>
       </c>
       <c r="I33" s="4">
-        <f>IF(J34=J33,"",1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -18445,8 +18862,8 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f ca="1">RAND()*100</f>
-        <v>66.20528584732179</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8006565120017015</v>
       </c>
       <c r="B34" t="s">
         <v>137</v>
@@ -18470,7 +18887,7 @@
         <v>140</v>
       </c>
       <c r="I34" s="4">
-        <f>IF(J35=J34,"",1)</f>
+        <f t="shared" ref="I34:I65" si="3">IF(J35=J34,"",1)</f>
         <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -18530,8 +18947,8 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f ca="1">RAND()*100</f>
-        <v>39.285096512968742</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>25.474843939650317</v>
       </c>
       <c r="B35" t="s">
         <v>244</v>
@@ -18555,7 +18972,7 @@
         <v>247</v>
       </c>
       <c r="I35" s="4">
-        <f>IF(J36=J35,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -18615,8 +19032,8 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f ca="1">RAND()*100</f>
-        <v>78.441162844981079</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10.817453428526392</v>
       </c>
       <c r="B36" t="s">
         <v>253</v>
@@ -18640,7 +19057,7 @@
         <v>256</v>
       </c>
       <c r="I36" s="4">
-        <f>IF(J37=J36,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -18700,8 +19117,8 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f ca="1">RAND()*100</f>
-        <v>11.925971020116489</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>39.363923679427337</v>
       </c>
       <c r="B37" t="s">
         <v>273</v>
@@ -18725,7 +19142,7 @@
         <v>276</v>
       </c>
       <c r="I37" s="4">
-        <f>IF(J38=J37,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -18785,8 +19202,8 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f ca="1">RAND()*100</f>
-        <v>18.5883333492595</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>38.436672645494305</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -18810,7 +19227,7 @@
         <v>43</v>
       </c>
       <c r="I38" s="4">
-        <f>IF(J39=J38,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J38" s="4" t="s">
@@ -18870,8 +19287,8 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f ca="1">RAND()*100</f>
-        <v>80.127753716059345</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.175707919774048</v>
       </c>
       <c r="B39" t="s">
         <v>90</v>
@@ -18895,7 +19312,7 @@
         <v>93</v>
       </c>
       <c r="I39" s="4">
-        <f>IF(J40=J39,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J39" s="4" t="s">
@@ -18955,8 +19372,8 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f ca="1">RAND()*100</f>
-        <v>13.805468940310718</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>24.280980097234384</v>
       </c>
       <c r="B40" t="s">
         <v>126</v>
@@ -18980,7 +19397,7 @@
         <v>130</v>
       </c>
       <c r="I40" s="4">
-        <f>IF(J41=J40,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -19040,8 +19457,8 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f ca="1">RAND()*100</f>
-        <v>93.611337310389217</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72.702186168040299</v>
       </c>
       <c r="B41" t="s">
         <v>160</v>
@@ -19065,7 +19482,7 @@
         <v>163</v>
       </c>
       <c r="I41" s="4">
-        <f>IF(J42=J41,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J41" s="4" t="s">
@@ -19125,8 +19542,8 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f ca="1">RAND()*100</f>
-        <v>64.1482321824612</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60.800475286752317</v>
       </c>
       <c r="B42" t="s">
         <v>170</v>
@@ -19150,7 +19567,7 @@
         <v>173</v>
       </c>
       <c r="I42" s="4">
-        <f>IF(J43=J42,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J42" s="4" t="s">
@@ -19210,8 +19627,8 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f ca="1">RAND()*100</f>
-        <v>40.935711269380505</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>93.328296739782147</v>
       </c>
       <c r="B43" t="s">
         <v>283</v>
@@ -19235,7 +19652,7 @@
         <v>286</v>
       </c>
       <c r="I43" s="4">
-        <f>IF(J44=J43,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J43" s="4" t="s">
@@ -19295,8 +19712,8 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f ca="1">RAND()*100</f>
-        <v>39.155774774074615</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>17.911110586611589</v>
       </c>
       <c r="B44" t="s">
         <v>202</v>
@@ -19320,7 +19737,7 @@
         <v>207</v>
       </c>
       <c r="I44" s="4">
-        <f>IF(J45=J44,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -19380,8 +19797,8 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f ca="1">RAND()*100</f>
-        <v>96.078780909982939</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2169033175874198</v>
       </c>
       <c r="B45" t="s">
         <v>264</v>
@@ -19405,7 +19822,7 @@
         <v>267</v>
       </c>
       <c r="I45" s="4">
-        <f>IF(J46=J45,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J45" s="4" t="s">
@@ -19465,8 +19882,8 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f ca="1">RAND()*100</f>
-        <v>78.084756883728318</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19.597712169752956</v>
       </c>
       <c r="B46" t="s">
         <v>102</v>
@@ -19490,7 +19907,7 @@
         <v>107</v>
       </c>
       <c r="I46" s="4">
-        <f>IF(J47=J46,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -19550,8 +19967,8 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f ca="1">RAND()*100</f>
-        <v>86.411031625851948</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9217059945706678</v>
       </c>
       <c r="B47" t="s">
         <v>214</v>
@@ -19575,7 +19992,7 @@
         <v>217</v>
       </c>
       <c r="I47" s="4">
-        <f>IF(J48=J47,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J47" s="4" t="s">
@@ -19635,8 +20052,8 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f ca="1">RAND()*100</f>
-        <v>9.1716639102036428</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>71.509426709988617</v>
       </c>
       <c r="B48" t="s">
         <v>223</v>
@@ -19660,7 +20077,7 @@
         <v>226</v>
       </c>
       <c r="I48" s="4">
-        <f>IF(J49=J48,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J48" s="4" t="s">
@@ -19720,8 +20137,8 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f ca="1">RAND()*100</f>
-        <v>2.4481776384808973</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.3937363694696074</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -19745,7 +20162,7 @@
         <v>26</v>
       </c>
       <c r="I49" s="4">
-        <f>IF(J50=J49,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J49" s="4" t="s">
@@ -19805,8 +20222,8 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f ca="1">RAND()*100</f>
-        <v>33.508689504056107</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>87.380007014102418</v>
       </c>
       <c r="B50" t="s">
         <v>181</v>
@@ -19830,7 +20247,7 @@
         <v>184</v>
       </c>
       <c r="I50" s="4">
-        <f>IF(J51=J50,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J50" s="4" t="s">
@@ -19890,8 +20307,8 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f ca="1">RAND()*100</f>
-        <v>30.393416692283648</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>70.374214080360829</v>
       </c>
       <c r="B51" t="s">
         <v>233</v>
@@ -19915,7 +20332,7 @@
         <v>238</v>
       </c>
       <c r="I51" s="4">
-        <f>IF(J52=J51,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J51" s="4" t="s">
@@ -22585,6 +23002,729 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="E1" s="31" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="28">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="28">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="28">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="28">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="28">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="28">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="28">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="28">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="28">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="28">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="28">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="28">
+        <v>2</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="28">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="28">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="B28" s="28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B29" s="28">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B30" s="28">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="B31" s="28">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="B32" s="28">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="B33" s="28">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="B34" s="28">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="B35" s="28">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="B36" s="28">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="B37" s="28">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="B38" s="28">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="B39" s="28">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>605</v>
+      </c>
+      <c r="B40" s="28">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="B41" s="28">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="B42" s="28">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="B43" s="28">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="B44" s="28">
+        <v>1</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="B45" s="28">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="B46" s="28">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="F46" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>612</v>
+      </c>
+      <c r="B47" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="B48" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="B49" s="28"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="B50" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B10"/>
   <sheetViews>
@@ -22669,7 +23809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D10"/>
   <sheetViews>
@@ -22796,7 +23936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G11"/>
   <sheetViews>
@@ -23001,7 +24141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D7"/>
   <sheetViews>
@@ -23086,7 +24226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D10"/>
   <sheetViews>
@@ -23213,7 +24353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D10"/>
   <sheetViews>
@@ -23350,11 +24490,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
